--- a/Code/Results/Cases/Case_4_64/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_64/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014486973153402</v>
+        <v>1.042578163836886</v>
       </c>
       <c r="D2">
-        <v>1.032408228425137</v>
+        <v>1.049719097510942</v>
       </c>
       <c r="E2">
-        <v>1.022567946501235</v>
+        <v>1.04623855066462</v>
       </c>
       <c r="F2">
-        <v>1.033243914308465</v>
+        <v>1.057125030866636</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048415083931023</v>
+        <v>1.041890428889587</v>
       </c>
       <c r="J2">
-        <v>1.036242849751963</v>
+        <v>1.047653232839698</v>
       </c>
       <c r="K2">
-        <v>1.04343379958746</v>
+        <v>1.052475373860962</v>
       </c>
       <c r="L2">
-        <v>1.033721578448442</v>
+        <v>1.049004545774487</v>
       </c>
       <c r="M2">
-        <v>1.044258750410649</v>
+        <v>1.059860858288384</v>
       </c>
       <c r="N2">
-        <v>1.037714433457339</v>
+        <v>1.049141020597836</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019052800374131</v>
+        <v>1.043543760084638</v>
       </c>
       <c r="D3">
-        <v>1.035988608793397</v>
+        <v>1.05050145029989</v>
       </c>
       <c r="E3">
-        <v>1.02664442965455</v>
+        <v>1.047153034049339</v>
       </c>
       <c r="F3">
-        <v>1.037525941171277</v>
+        <v>1.058088752324795</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04984257834477</v>
+        <v>1.042141689228796</v>
       </c>
       <c r="J3">
-        <v>1.0390372067769</v>
+        <v>1.048265244721133</v>
       </c>
       <c r="K3">
-        <v>1.046180820142317</v>
+        <v>1.053070106377957</v>
       </c>
       <c r="L3">
-        <v>1.036947373160277</v>
+        <v>1.049730363953588</v>
       </c>
       <c r="M3">
-        <v>1.047700170898896</v>
+        <v>1.060637973089561</v>
       </c>
       <c r="N3">
-        <v>1.040512758789757</v>
+        <v>1.049753901606341</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.021947726924932</v>
+        <v>1.044169020690681</v>
       </c>
       <c r="D4">
-        <v>1.038261700863257</v>
+        <v>1.051008079850108</v>
       </c>
       <c r="E4">
-        <v>1.029234351004467</v>
+        <v>1.047745553942844</v>
       </c>
       <c r="F4">
-        <v>1.040246581002724</v>
+        <v>1.058713191254532</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050739169869082</v>
+        <v>1.042303308729274</v>
       </c>
       <c r="J4">
-        <v>1.040806195670785</v>
+        <v>1.04866109119299</v>
       </c>
       <c r="K4">
-        <v>1.047919271615401</v>
+        <v>1.053454673883419</v>
       </c>
       <c r="L4">
-        <v>1.038992295923122</v>
+        <v>1.050200173777044</v>
       </c>
       <c r="M4">
-        <v>1.049882369031133</v>
+        <v>1.061141041811192</v>
       </c>
       <c r="N4">
-        <v>1.042284259850777</v>
+        <v>1.050150310225592</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023151023785886</v>
+        <v>1.044431988438199</v>
       </c>
       <c r="D5">
-        <v>1.039207195821773</v>
+        <v>1.051221160274909</v>
       </c>
       <c r="E5">
-        <v>1.030312097575712</v>
+        <v>1.047994836798155</v>
       </c>
       <c r="F5">
-        <v>1.041378754778266</v>
+        <v>1.058975906891709</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051109771062004</v>
+        <v>1.042371022611434</v>
       </c>
       <c r="J5">
-        <v>1.041540796154287</v>
+        <v>1.04882746444881</v>
       </c>
       <c r="K5">
-        <v>1.048641046902939</v>
+        <v>1.053616281930046</v>
       </c>
       <c r="L5">
-        <v>1.039842160593995</v>
+        <v>1.050397718439811</v>
       </c>
       <c r="M5">
-        <v>1.050789423281411</v>
+        <v>1.061352584372667</v>
       </c>
       <c r="N5">
-        <v>1.043019903551225</v>
+        <v>1.050316919750519</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.023352271742259</v>
+        <v>1.044476148201146</v>
       </c>
       <c r="D6">
-        <v>1.039365365080695</v>
+        <v>1.051256942855838</v>
       </c>
       <c r="E6">
-        <v>1.030492418769771</v>
+        <v>1.048036703447562</v>
       </c>
       <c r="F6">
-        <v>1.041568184195466</v>
+        <v>1.059020029785336</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051171630190062</v>
+        <v>1.042382378513123</v>
       </c>
       <c r="J6">
-        <v>1.041663614361354</v>
+        <v>1.048855396845699</v>
       </c>
       <c r="K6">
-        <v>1.048761712186637</v>
+        <v>1.053643412845816</v>
       </c>
       <c r="L6">
-        <v>1.039984289883926</v>
+        <v>1.050430889177203</v>
       </c>
       <c r="M6">
-        <v>1.050941124895175</v>
+        <v>1.061388106346583</v>
       </c>
       <c r="N6">
-        <v>1.043142896174233</v>
+        <v>1.050344891814616</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021963858733972</v>
+        <v>1.044172534054477</v>
       </c>
       <c r="D7">
-        <v>1.038274373913936</v>
+        <v>1.051010926675823</v>
       </c>
       <c r="E7">
-        <v>1.029248794840194</v>
+        <v>1.047748884137283</v>
       </c>
       <c r="F7">
-        <v>1.040261754142365</v>
+        <v>1.058716700883419</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050744146509942</v>
+        <v>1.042304214433566</v>
       </c>
       <c r="J7">
-        <v>1.040816046752761</v>
+        <v>1.048663314441141</v>
       </c>
       <c r="K7">
-        <v>1.047928951288437</v>
+        <v>1.053456833551145</v>
       </c>
       <c r="L7">
-        <v>1.03900369002563</v>
+        <v>1.050202813235824</v>
       </c>
       <c r="M7">
-        <v>1.049894529328153</v>
+        <v>1.061143868248363</v>
       </c>
       <c r="N7">
-        <v>1.042294124922419</v>
+        <v>1.05015253663101</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.016042642505779</v>
+        <v>1.042904396859624</v>
       </c>
       <c r="D8">
-        <v>1.033627482037087</v>
+        <v>1.049983414795209</v>
       </c>
       <c r="E8">
-        <v>1.023955762115126</v>
+        <v>1.046547440751524</v>
       </c>
       <c r="F8">
-        <v>1.034701678899698</v>
+        <v>1.057450549012656</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048903221123202</v>
+        <v>1.041975542553763</v>
       </c>
       <c r="J8">
-        <v>1.03719550025488</v>
+        <v>1.047860099023013</v>
       </c>
       <c r="K8">
-        <v>1.044370427541011</v>
+        <v>1.052676420673303</v>
       </c>
       <c r="L8">
-        <v>1.034820727456409</v>
+        <v>1.049249806358226</v>
       </c>
       <c r="M8">
-        <v>1.045431247535158</v>
+        <v>1.060123440980103</v>
       </c>
       <c r="N8">
-        <v>1.038668436833228</v>
+        <v>1.049348180554859</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005129134307015</v>
+        <v>1.040673299344784</v>
       </c>
       <c r="D9">
-        <v>1.02508870441212</v>
+        <v>1.048175885520555</v>
       </c>
       <c r="E9">
-        <v>1.014243619051903</v>
+        <v>1.044436430100531</v>
       </c>
       <c r="F9">
-        <v>1.02450057498041</v>
+        <v>1.055225965012117</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045444155691106</v>
+        <v>1.041389028231715</v>
       </c>
       <c r="J9">
-        <v>1.030502060732572</v>
+        <v>1.046443494901375</v>
       </c>
       <c r="K9">
-        <v>1.037787438916481</v>
+        <v>1.051299248956834</v>
       </c>
       <c r="L9">
-        <v>1.027109754404309</v>
+        <v>1.047571730550132</v>
       </c>
       <c r="M9">
-        <v>1.037208271743054</v>
+        <v>1.058327074880324</v>
       </c>
       <c r="N9">
-        <v>1.031965491859051</v>
+        <v>1.047929564692882</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9974951276472623</v>
+        <v>1.039188315477112</v>
       </c>
       <c r="D10">
-        <v>1.01913683055173</v>
+        <v>1.046973005900648</v>
       </c>
       <c r="E10">
-        <v>1.00748202130059</v>
+        <v>1.043033249384586</v>
       </c>
       <c r="F10">
-        <v>1.017399274848052</v>
+        <v>1.053747374271417</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042982133324534</v>
+        <v>1.040993103125866</v>
       </c>
       <c r="J10">
-        <v>1.025808481386328</v>
+        <v>1.045498309554476</v>
       </c>
       <c r="K10">
-        <v>1.033168951289903</v>
+        <v>1.05037985194898</v>
       </c>
       <c r="L10">
-        <v>1.021717486935908</v>
+        <v>1.046453905771584</v>
       </c>
       <c r="M10">
-        <v>1.031461329017423</v>
+        <v>1.057130739318784</v>
       </c>
       <c r="N10">
-        <v>1.027265247091774</v>
+        <v>1.046983037074376</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9940958229619065</v>
+        <v>1.038545883024345</v>
       </c>
       <c r="D11">
-        <v>1.016492344700691</v>
+        <v>1.04645266790083</v>
       </c>
       <c r="E11">
-        <v>1.004479405420446</v>
+        <v>1.04242665724037</v>
       </c>
       <c r="F11">
-        <v>1.01424598214499</v>
+        <v>1.053108201658177</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041876307355933</v>
+        <v>1.040820502990185</v>
       </c>
       <c r="J11">
-        <v>1.023716302190183</v>
+        <v>1.045088858161867</v>
       </c>
       <c r="K11">
-        <v>1.031109800440077</v>
+        <v>1.049981449347026</v>
       </c>
       <c r="L11">
-        <v>1.0193173382505</v>
+        <v>1.045970098479334</v>
       </c>
       <c r="M11">
-        <v>1.028904149531114</v>
+        <v>1.056613019800207</v>
       </c>
       <c r="N11">
-        <v>1.025170096761195</v>
+        <v>1.046573004213824</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9928182860196799</v>
+        <v>1.038307342133198</v>
       </c>
       <c r="D12">
-        <v>1.01549942871922</v>
+        <v>1.046259469990352</v>
       </c>
       <c r="E12">
-        <v>1.003352243578945</v>
+        <v>1.042201492390835</v>
       </c>
       <c r="F12">
-        <v>1.013062284112198</v>
+        <v>1.052870945907459</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041459328870908</v>
+        <v>1.040756217471493</v>
       </c>
       <c r="J12">
-        <v>1.022929729807097</v>
+        <v>1.044936743414892</v>
       </c>
       <c r="K12">
-        <v>1.03033558892829</v>
+        <v>1.049833420985721</v>
       </c>
       <c r="L12">
-        <v>1.018415500470064</v>
+        <v>1.045790424581191</v>
       </c>
       <c r="M12">
-        <v>1.027943438340918</v>
+        <v>1.05642076200481</v>
       </c>
       <c r="N12">
-        <v>1.024382407355102</v>
+        <v>1.046420673446461</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9930930090648691</v>
+        <v>1.038358506010403</v>
       </c>
       <c r="D13">
-        <v>1.015712902741924</v>
+        <v>1.04630090801413</v>
       </c>
       <c r="E13">
-        <v>1.00359457056313</v>
+        <v>1.04224978418829</v>
       </c>
       <c r="F13">
-        <v>1.013316764507914</v>
+        <v>1.052921830748865</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041549058142241</v>
+        <v>1.040770014806942</v>
       </c>
       <c r="J13">
-        <v>1.023098887269577</v>
+        <v>1.044969373720996</v>
       </c>
       <c r="K13">
-        <v>1.030502090483814</v>
+        <v>1.049865175544923</v>
       </c>
       <c r="L13">
-        <v>1.018609423136242</v>
+        <v>1.045828963704266</v>
       </c>
       <c r="M13">
-        <v>1.028150014662772</v>
+        <v>1.056461999844575</v>
       </c>
       <c r="N13">
-        <v>1.024551805040582</v>
+        <v>1.046453350091342</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9939905298257574</v>
+        <v>1.038526163378541</v>
       </c>
       <c r="D14">
-        <v>1.016410490107363</v>
+        <v>1.046436696487346</v>
       </c>
       <c r="E14">
-        <v>1.004386479471207</v>
+        <v>1.042408041967583</v>
       </c>
       <c r="F14">
-        <v>1.014148394664456</v>
+        <v>1.053088586724451</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041841968306729</v>
+        <v>1.040815192679146</v>
       </c>
       <c r="J14">
-        <v>1.023651479268875</v>
+        <v>1.045076284840908</v>
       </c>
       <c r="K14">
-        <v>1.03104599728704</v>
+        <v>1.04996921416722</v>
       </c>
       <c r="L14">
-        <v>1.019243005574704</v>
+        <v>1.045955245886828</v>
       </c>
       <c r="M14">
-        <v>1.02882496163973</v>
+        <v>1.056597126761083</v>
       </c>
       <c r="N14">
-        <v>1.025105181783903</v>
+        <v>1.046560413037307</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9945415247791372</v>
+        <v>1.038629474182085</v>
       </c>
       <c r="D15">
-        <v>1.016838870927739</v>
+        <v>1.046520370722094</v>
       </c>
       <c r="E15">
-        <v>1.00487281034062</v>
+        <v>1.042505569781438</v>
       </c>
       <c r="F15">
-        <v>1.014659122904483</v>
+        <v>1.053191352007591</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042021607128275</v>
+        <v>1.040843005194416</v>
       </c>
       <c r="J15">
-        <v>1.023990683877358</v>
+        <v>1.045142152852261</v>
       </c>
       <c r="K15">
-        <v>1.03137986342766</v>
+        <v>1.05003331000403</v>
       </c>
       <c r="L15">
-        <v>1.019631993816899</v>
+        <v>1.04603305699577</v>
       </c>
       <c r="M15">
-        <v>1.029239362886109</v>
+        <v>1.056680389076174</v>
       </c>
       <c r="N15">
-        <v>1.025444868101837</v>
+        <v>1.046626374588792</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9977186863616532</v>
+        <v>1.0392309637837</v>
       </c>
       <c r="D16">
-        <v>1.019310874542373</v>
+        <v>1.047007550006406</v>
       </c>
       <c r="E16">
-        <v>1.007679667225054</v>
+        <v>1.043073527950483</v>
       </c>
       <c r="F16">
-        <v>1.017606842702148</v>
+        <v>1.053789816627493</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043054664590367</v>
+        <v>1.041004533583802</v>
       </c>
       <c r="J16">
-        <v>1.025946033761314</v>
+        <v>1.045525479769347</v>
       </c>
       <c r="K16">
-        <v>1.033304323794166</v>
+        <v>1.050406286416733</v>
       </c>
       <c r="L16">
-        <v>1.021875359104865</v>
+        <v>1.0464860191414</v>
       </c>
       <c r="M16">
-        <v>1.031629547825897</v>
+        <v>1.057165105096152</v>
       </c>
       <c r="N16">
-        <v>1.02740299480691</v>
+        <v>1.047010245874069</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9996859932596701</v>
+        <v>1.039608416841679</v>
       </c>
       <c r="D17">
-        <v>1.02084312171394</v>
+        <v>1.047313283874171</v>
       </c>
       <c r="E17">
-        <v>1.009419884678455</v>
+        <v>1.04343006009266</v>
       </c>
       <c r="F17">
-        <v>1.019434439937593</v>
+        <v>1.054165504112274</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043691857843157</v>
+        <v>1.041105545287832</v>
       </c>
       <c r="J17">
-        <v>1.027156243633792</v>
+        <v>1.045765882987739</v>
       </c>
       <c r="K17">
-        <v>1.034495305469814</v>
+        <v>1.050640165560218</v>
       </c>
       <c r="L17">
-        <v>1.023264740779007</v>
+        <v>1.046770209375996</v>
       </c>
       <c r="M17">
-        <v>1.033110082798644</v>
+        <v>1.057469236094537</v>
       </c>
       <c r="N17">
-        <v>1.028614923316219</v>
+        <v>1.047250990492604</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000824503657477</v>
+        <v>1.039828634292201</v>
       </c>
       <c r="D18">
-        <v>1.021730400975699</v>
+        <v>1.047491663054766</v>
       </c>
       <c r="E18">
-        <v>1.010427750989028</v>
+        <v>1.043638115127814</v>
       </c>
       <c r="F18">
-        <v>1.020492929750801</v>
+        <v>1.054384739134333</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044059704181491</v>
+        <v>1.041164351565492</v>
       </c>
       <c r="J18">
-        <v>1.027856398384022</v>
+        <v>1.04590608870893</v>
       </c>
       <c r="K18">
-        <v>1.035184293129875</v>
+        <v>1.050776554535578</v>
       </c>
       <c r="L18">
-        <v>1.024068883153417</v>
+        <v>1.04693599372648</v>
       </c>
       <c r="M18">
-        <v>1.033967061935504</v>
+        <v>1.057646659602914</v>
       </c>
       <c r="N18">
-        <v>1.029316072366504</v>
+        <v>1.047391395322002</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001211205459439</v>
+        <v>1.039903732139458</v>
       </c>
       <c r="D19">
-        <v>1.022031860898291</v>
+        <v>1.047552494155717</v>
       </c>
       <c r="E19">
-        <v>1.010770208780996</v>
+        <v>1.043709072746063</v>
       </c>
       <c r="F19">
-        <v>1.020852591433094</v>
+        <v>1.054459510025469</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044184490123239</v>
+        <v>1.041184383952594</v>
       </c>
       <c r="J19">
-        <v>1.028094172739782</v>
+        <v>1.045953892260727</v>
       </c>
       <c r="K19">
-        <v>1.035418267552235</v>
+        <v>1.050823054746419</v>
       </c>
       <c r="L19">
-        <v>1.02434202798564</v>
+        <v>1.046992525439851</v>
       </c>
       <c r="M19">
-        <v>1.03425816729584</v>
+        <v>1.057707161331118</v>
       </c>
       <c r="N19">
-        <v>1.029554184389122</v>
+        <v>1.047439266760325</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9994758549719512</v>
+        <v>1.039567913958452</v>
       </c>
       <c r="D20">
-        <v>1.020679397419732</v>
+        <v>1.047280476365481</v>
       </c>
       <c r="E20">
-        <v>1.009233922099022</v>
+        <v>1.043391797643948</v>
       </c>
       <c r="F20">
-        <v>1.01923913808834</v>
+        <v>1.05412518575234</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043623889692857</v>
+        <v>1.04109471928406</v>
       </c>
       <c r="J20">
-        <v>1.027026996493566</v>
+        <v>1.045740091792724</v>
       </c>
       <c r="K20">
-        <v>1.034368116219292</v>
+        <v>1.050615075511624</v>
       </c>
       <c r="L20">
-        <v>1.023116324402726</v>
+        <v>1.046739716275348</v>
       </c>
       <c r="M20">
-        <v>1.032951921000486</v>
+        <v>1.057436602705698</v>
       </c>
       <c r="N20">
-        <v>1.02848549263023</v>
+        <v>1.047225162671135</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9937266499280556</v>
+        <v>1.038476790051738</v>
       </c>
       <c r="D21">
-        <v>1.016205366042292</v>
+        <v>1.046396707982209</v>
       </c>
       <c r="E21">
-        <v>1.004153614520511</v>
+        <v>1.042361434833271</v>
       </c>
       <c r="F21">
-        <v>1.013903848727099</v>
+        <v>1.053039476780996</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041755887537245</v>
+        <v>1.040801893725574</v>
       </c>
       <c r="J21">
-        <v>1.023489019211798</v>
+        <v>1.045044802899824</v>
       </c>
       <c r="K21">
-        <v>1.030886092113842</v>
+        <v>1.049938578591199</v>
       </c>
       <c r="L21">
-        <v>1.019056720383283</v>
+        <v>1.045918057994917</v>
       </c>
       <c r="M21">
-        <v>1.028626510891072</v>
+        <v>1.056557333966679</v>
       </c>
       <c r="N21">
-        <v>1.02494249101491</v>
+        <v>1.046528886388256</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9900253433202927</v>
+        <v>1.037791261573243</v>
       </c>
       <c r="D22">
-        <v>1.013330539273589</v>
+        <v>1.045841504149601</v>
       </c>
       <c r="E22">
-        <v>1.000890486590089</v>
+        <v>1.041714476018978</v>
       </c>
       <c r="F22">
-        <v>1.0104771005837</v>
+        <v>1.052357782925859</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040545243369357</v>
+        <v>1.040616775348902</v>
       </c>
       <c r="J22">
-        <v>1.021209663981711</v>
+        <v>1.044607495570707</v>
       </c>
       <c r="K22">
-        <v>1.028642461735336</v>
+        <v>1.049512984565702</v>
       </c>
       <c r="L22">
-        <v>1.016444323383808</v>
+        <v>1.045401644078075</v>
       </c>
       <c r="M22">
-        <v>1.025843822641518</v>
+        <v>1.056004771083138</v>
       </c>
       <c r="N22">
-        <v>1.02265989883895</v>
+        <v>1.046090958032572</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9919959633191322</v>
+        <v>1.038154625146166</v>
       </c>
       <c r="D23">
-        <v>1.01486058535725</v>
+        <v>1.046135784559336</v>
       </c>
       <c r="E23">
-        <v>1.002627084851919</v>
+        <v>1.042057358185147</v>
       </c>
       <c r="F23">
-        <v>1.012300760539794</v>
+        <v>1.052719072784366</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04119054514781</v>
+        <v>1.040715005442472</v>
       </c>
       <c r="J23">
-        <v>1.022423356601432</v>
+        <v>1.044839334576365</v>
       </c>
       <c r="K23">
-        <v>1.029837158737372</v>
+        <v>1.049738623771523</v>
       </c>
       <c r="L23">
-        <v>1.017835068276462</v>
+        <v>1.045675386061198</v>
       </c>
       <c r="M23">
-        <v>1.02732515166169</v>
+        <v>1.056297669371526</v>
       </c>
       <c r="N23">
-        <v>1.023875315041404</v>
+        <v>1.04632312627621</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9995708351310858</v>
+        <v>1.039586215296582</v>
       </c>
       <c r="D24">
-        <v>1.020753397289281</v>
+        <v>1.047295300512744</v>
       </c>
       <c r="E24">
-        <v>1.009317972706107</v>
+        <v>1.043409086501404</v>
       </c>
       <c r="F24">
-        <v>1.019327409769267</v>
+        <v>1.054143403565955</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043654613353709</v>
+        <v>1.041099611435687</v>
       </c>
       <c r="J24">
-        <v>1.027085415418638</v>
+        <v>1.045751745777423</v>
       </c>
       <c r="K24">
-        <v>1.034425605124202</v>
+        <v>1.050626412713557</v>
       </c>
       <c r="L24">
-        <v>1.023183406684193</v>
+        <v>1.046753494730165</v>
       </c>
       <c r="M24">
-        <v>1.0330234078409</v>
+        <v>1.057451348239763</v>
       </c>
       <c r="N24">
-        <v>1.028543994516876</v>
+        <v>1.047236833205829</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008010921146712</v>
+        <v>1.041249669374877</v>
       </c>
       <c r="D25">
-        <v>1.027340060827253</v>
+        <v>1.048642803155721</v>
       </c>
       <c r="E25">
-        <v>1.016802845571293</v>
+        <v>1.044981448746088</v>
       </c>
       <c r="F25">
-        <v>1.027188524873238</v>
+        <v>1.055800291395286</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046365022809695</v>
+        <v>1.041541524691024</v>
       </c>
       <c r="J25">
-        <v>1.032271661104454</v>
+        <v>1.046809862511313</v>
       </c>
       <c r="K25">
-        <v>1.039528281016543</v>
+        <v>1.051655510707519</v>
       </c>
       <c r="L25">
-        <v>1.029145800862801</v>
+        <v>1.048005400181039</v>
       </c>
       <c r="M25">
-        <v>1.03937894178701</v>
+        <v>1.058791264128797</v>
       </c>
       <c r="N25">
-        <v>1.033737605266437</v>
+        <v>1.048296452586849</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_64/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_64/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.042578163836886</v>
+        <v>1.0144869731534</v>
       </c>
       <c r="D2">
-        <v>1.049719097510942</v>
+        <v>1.032408228425135</v>
       </c>
       <c r="E2">
-        <v>1.04623855066462</v>
+        <v>1.022567946501233</v>
       </c>
       <c r="F2">
-        <v>1.057125030866636</v>
+        <v>1.033243914308463</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041890428889587</v>
+        <v>1.048415083931022</v>
       </c>
       <c r="J2">
-        <v>1.047653232839698</v>
+        <v>1.036242849751962</v>
       </c>
       <c r="K2">
-        <v>1.052475373860962</v>
+        <v>1.043433799587459</v>
       </c>
       <c r="L2">
-        <v>1.049004545774487</v>
+        <v>1.03372157844844</v>
       </c>
       <c r="M2">
-        <v>1.059860858288384</v>
+        <v>1.044258750410647</v>
       </c>
       <c r="N2">
-        <v>1.049141020597836</v>
+        <v>1.037714433457337</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043543760084638</v>
+        <v>1.01905280037413</v>
       </c>
       <c r="D3">
-        <v>1.05050145029989</v>
+        <v>1.035988608793396</v>
       </c>
       <c r="E3">
-        <v>1.047153034049339</v>
+        <v>1.026644429654549</v>
       </c>
       <c r="F3">
-        <v>1.058088752324795</v>
+        <v>1.037525941171275</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042141689228796</v>
+        <v>1.049842578344769</v>
       </c>
       <c r="J3">
-        <v>1.048265244721133</v>
+        <v>1.039037206776899</v>
       </c>
       <c r="K3">
-        <v>1.053070106377957</v>
+        <v>1.046180820142316</v>
       </c>
       <c r="L3">
-        <v>1.049730363953588</v>
+        <v>1.036947373160275</v>
       </c>
       <c r="M3">
-        <v>1.060637973089561</v>
+        <v>1.047700170898895</v>
       </c>
       <c r="N3">
-        <v>1.049753901606341</v>
+        <v>1.040512758789756</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044169020690681</v>
+        <v>1.021947726924934</v>
       </c>
       <c r="D4">
-        <v>1.051008079850108</v>
+        <v>1.038261700863257</v>
       </c>
       <c r="E4">
-        <v>1.047745553942844</v>
+        <v>1.029234351004469</v>
       </c>
       <c r="F4">
-        <v>1.058713191254532</v>
+        <v>1.040246581002725</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042303308729274</v>
+        <v>1.050739169869082</v>
       </c>
       <c r="J4">
-        <v>1.04866109119299</v>
+        <v>1.040806195670786</v>
       </c>
       <c r="K4">
-        <v>1.053454673883419</v>
+        <v>1.047919271615402</v>
       </c>
       <c r="L4">
-        <v>1.050200173777044</v>
+        <v>1.038992295923123</v>
       </c>
       <c r="M4">
-        <v>1.061141041811192</v>
+        <v>1.049882369031134</v>
       </c>
       <c r="N4">
-        <v>1.050150310225592</v>
+        <v>1.042284259850778</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044431988438199</v>
+        <v>1.023151023785886</v>
       </c>
       <c r="D5">
-        <v>1.051221160274909</v>
+        <v>1.039207195821773</v>
       </c>
       <c r="E5">
-        <v>1.047994836798155</v>
+        <v>1.030312097575713</v>
       </c>
       <c r="F5">
-        <v>1.058975906891709</v>
+        <v>1.041378754778266</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042371022611434</v>
+        <v>1.051109771062005</v>
       </c>
       <c r="J5">
-        <v>1.04882746444881</v>
+        <v>1.041540796154287</v>
       </c>
       <c r="K5">
-        <v>1.053616281930046</v>
+        <v>1.048641046902939</v>
       </c>
       <c r="L5">
-        <v>1.050397718439811</v>
+        <v>1.039842160593996</v>
       </c>
       <c r="M5">
-        <v>1.061352584372667</v>
+        <v>1.050789423281411</v>
       </c>
       <c r="N5">
-        <v>1.050316919750519</v>
+        <v>1.043019903551226</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044476148201146</v>
+        <v>1.023352271742258</v>
       </c>
       <c r="D6">
-        <v>1.051256942855838</v>
+        <v>1.039365365080694</v>
       </c>
       <c r="E6">
-        <v>1.048036703447562</v>
+        <v>1.030492418769769</v>
       </c>
       <c r="F6">
-        <v>1.059020029785336</v>
+        <v>1.041568184195465</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042382378513123</v>
+        <v>1.051171630190062</v>
       </c>
       <c r="J6">
-        <v>1.048855396845699</v>
+        <v>1.041663614361352</v>
       </c>
       <c r="K6">
-        <v>1.053643412845816</v>
+        <v>1.048761712186636</v>
       </c>
       <c r="L6">
-        <v>1.050430889177203</v>
+        <v>1.039984289883925</v>
       </c>
       <c r="M6">
-        <v>1.061388106346583</v>
+        <v>1.050941124895175</v>
       </c>
       <c r="N6">
-        <v>1.050344891814616</v>
+        <v>1.043142896174233</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044172534054477</v>
+        <v>1.021963858733971</v>
       </c>
       <c r="D7">
-        <v>1.051010926675823</v>
+        <v>1.038274373913935</v>
       </c>
       <c r="E7">
-        <v>1.047748884137283</v>
+        <v>1.029248794840193</v>
       </c>
       <c r="F7">
-        <v>1.058716700883419</v>
+        <v>1.040261754142364</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042304214433566</v>
+        <v>1.050744146509942</v>
       </c>
       <c r="J7">
-        <v>1.048663314441141</v>
+        <v>1.04081604675276</v>
       </c>
       <c r="K7">
-        <v>1.053456833551145</v>
+        <v>1.047928951288436</v>
       </c>
       <c r="L7">
-        <v>1.050202813235824</v>
+        <v>1.039003690025629</v>
       </c>
       <c r="M7">
-        <v>1.061143868248363</v>
+        <v>1.049894529328152</v>
       </c>
       <c r="N7">
-        <v>1.05015253663101</v>
+        <v>1.042294124922418</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042904396859624</v>
+        <v>1.016042642505779</v>
       </c>
       <c r="D8">
-        <v>1.049983414795209</v>
+        <v>1.033627482037086</v>
       </c>
       <c r="E8">
-        <v>1.046547440751524</v>
+        <v>1.023955762115126</v>
       </c>
       <c r="F8">
-        <v>1.057450549012656</v>
+        <v>1.034701678899697</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041975542553763</v>
+        <v>1.048903221123201</v>
       </c>
       <c r="J8">
-        <v>1.047860099023013</v>
+        <v>1.037195500254879</v>
       </c>
       <c r="K8">
-        <v>1.052676420673303</v>
+        <v>1.044370427541011</v>
       </c>
       <c r="L8">
-        <v>1.049249806358226</v>
+        <v>1.034820727456408</v>
       </c>
       <c r="M8">
-        <v>1.060123440980103</v>
+        <v>1.045431247535157</v>
       </c>
       <c r="N8">
-        <v>1.049348180554859</v>
+        <v>1.038668436833228</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040673299344784</v>
+        <v>1.005129134307015</v>
       </c>
       <c r="D9">
-        <v>1.048175885520555</v>
+        <v>1.025088704412121</v>
       </c>
       <c r="E9">
-        <v>1.044436430100531</v>
+        <v>1.014243619051904</v>
       </c>
       <c r="F9">
-        <v>1.055225965012117</v>
+        <v>1.024500574980411</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041389028231715</v>
+        <v>1.045444155691106</v>
       </c>
       <c r="J9">
-        <v>1.046443494901375</v>
+        <v>1.030502060732573</v>
       </c>
       <c r="K9">
-        <v>1.051299248956834</v>
+        <v>1.037787438916481</v>
       </c>
       <c r="L9">
-        <v>1.047571730550132</v>
+        <v>1.02710975440431</v>
       </c>
       <c r="M9">
-        <v>1.058327074880324</v>
+        <v>1.037208271743054</v>
       </c>
       <c r="N9">
-        <v>1.047929564692882</v>
+        <v>1.031965491859051</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039188315477112</v>
+        <v>0.9974951276472621</v>
       </c>
       <c r="D10">
-        <v>1.046973005900648</v>
+        <v>1.01913683055173</v>
       </c>
       <c r="E10">
-        <v>1.043033249384586</v>
+        <v>1.00748202130059</v>
       </c>
       <c r="F10">
-        <v>1.053747374271417</v>
+        <v>1.017399274848051</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040993103125866</v>
+        <v>1.042982133324534</v>
       </c>
       <c r="J10">
-        <v>1.045498309554476</v>
+        <v>1.025808481386328</v>
       </c>
       <c r="K10">
-        <v>1.05037985194898</v>
+        <v>1.033168951289903</v>
       </c>
       <c r="L10">
-        <v>1.046453905771584</v>
+        <v>1.021717486935908</v>
       </c>
       <c r="M10">
-        <v>1.057130739318784</v>
+        <v>1.031461329017423</v>
       </c>
       <c r="N10">
-        <v>1.046983037074376</v>
+        <v>1.027265247091774</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038545883024345</v>
+        <v>0.994095822961906</v>
       </c>
       <c r="D11">
-        <v>1.04645266790083</v>
+        <v>1.016492344700691</v>
       </c>
       <c r="E11">
-        <v>1.04242665724037</v>
+        <v>1.004479405420446</v>
       </c>
       <c r="F11">
-        <v>1.053108201658177</v>
+        <v>1.01424598214499</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040820502990185</v>
+        <v>1.041876307355932</v>
       </c>
       <c r="J11">
-        <v>1.045088858161867</v>
+        <v>1.023716302190183</v>
       </c>
       <c r="K11">
-        <v>1.049981449347026</v>
+        <v>1.031109800440078</v>
       </c>
       <c r="L11">
-        <v>1.045970098479334</v>
+        <v>1.019317338250499</v>
       </c>
       <c r="M11">
-        <v>1.056613019800207</v>
+        <v>1.028904149531114</v>
       </c>
       <c r="N11">
-        <v>1.046573004213824</v>
+        <v>1.025170096761194</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038307342133198</v>
+        <v>0.9928182860196803</v>
       </c>
       <c r="D12">
-        <v>1.046259469990352</v>
+        <v>1.01549942871922</v>
       </c>
       <c r="E12">
-        <v>1.042201492390835</v>
+        <v>1.003352243578945</v>
       </c>
       <c r="F12">
-        <v>1.052870945907459</v>
+        <v>1.013062284112198</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040756217471493</v>
+        <v>1.041459328870908</v>
       </c>
       <c r="J12">
-        <v>1.044936743414892</v>
+        <v>1.022929729807097</v>
       </c>
       <c r="K12">
-        <v>1.049833420985721</v>
+        <v>1.03033558892829</v>
       </c>
       <c r="L12">
-        <v>1.045790424581191</v>
+        <v>1.018415500470065</v>
       </c>
       <c r="M12">
-        <v>1.05642076200481</v>
+        <v>1.027943438340918</v>
       </c>
       <c r="N12">
-        <v>1.046420673446461</v>
+        <v>1.024382407355103</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038358506010403</v>
+        <v>0.99309300906487</v>
       </c>
       <c r="D13">
-        <v>1.04630090801413</v>
+        <v>1.015712902741925</v>
       </c>
       <c r="E13">
-        <v>1.04224978418829</v>
+        <v>1.003594570563131</v>
       </c>
       <c r="F13">
-        <v>1.052921830748865</v>
+        <v>1.013316764507914</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040770014806942</v>
+        <v>1.041549058142242</v>
       </c>
       <c r="J13">
-        <v>1.044969373720996</v>
+        <v>1.023098887269578</v>
       </c>
       <c r="K13">
-        <v>1.049865175544923</v>
+        <v>1.030502090483815</v>
       </c>
       <c r="L13">
-        <v>1.045828963704266</v>
+        <v>1.018609423136243</v>
       </c>
       <c r="M13">
-        <v>1.056461999844575</v>
+        <v>1.028150014662773</v>
       </c>
       <c r="N13">
-        <v>1.046453350091342</v>
+        <v>1.024551805040584</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038526163378541</v>
+        <v>0.993990529825757</v>
       </c>
       <c r="D14">
-        <v>1.046436696487346</v>
+        <v>1.016410490107362</v>
       </c>
       <c r="E14">
-        <v>1.042408041967583</v>
+        <v>1.004386479471206</v>
       </c>
       <c r="F14">
-        <v>1.053088586724451</v>
+        <v>1.014148394664455</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040815192679146</v>
+        <v>1.041841968306729</v>
       </c>
       <c r="J14">
-        <v>1.045076284840908</v>
+        <v>1.023651479268874</v>
       </c>
       <c r="K14">
-        <v>1.04996921416722</v>
+        <v>1.031045997287039</v>
       </c>
       <c r="L14">
-        <v>1.045955245886828</v>
+        <v>1.019243005574704</v>
       </c>
       <c r="M14">
-        <v>1.056597126761083</v>
+        <v>1.02882496163973</v>
       </c>
       <c r="N14">
-        <v>1.046560413037307</v>
+        <v>1.025105181783902</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038629474182085</v>
+        <v>0.9945415247791358</v>
       </c>
       <c r="D15">
-        <v>1.046520370722094</v>
+        <v>1.016838870927737</v>
       </c>
       <c r="E15">
-        <v>1.042505569781438</v>
+        <v>1.004872810340619</v>
       </c>
       <c r="F15">
-        <v>1.053191352007591</v>
+        <v>1.014659122904481</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040843005194416</v>
+        <v>1.042021607128274</v>
       </c>
       <c r="J15">
-        <v>1.045142152852261</v>
+        <v>1.023990683877357</v>
       </c>
       <c r="K15">
-        <v>1.05003331000403</v>
+        <v>1.031379863427659</v>
       </c>
       <c r="L15">
-        <v>1.04603305699577</v>
+        <v>1.019631993816898</v>
       </c>
       <c r="M15">
-        <v>1.056680389076174</v>
+        <v>1.029239362886108</v>
       </c>
       <c r="N15">
-        <v>1.046626374588792</v>
+        <v>1.025444868101836</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.0392309637837</v>
+        <v>0.997718686361652</v>
       </c>
       <c r="D16">
-        <v>1.047007550006406</v>
+        <v>1.019310874542372</v>
       </c>
       <c r="E16">
-        <v>1.043073527950483</v>
+        <v>1.007679667225053</v>
       </c>
       <c r="F16">
-        <v>1.053789816627493</v>
+        <v>1.017606842702147</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041004533583802</v>
+        <v>1.043054664590366</v>
       </c>
       <c r="J16">
-        <v>1.045525479769347</v>
+        <v>1.025946033761313</v>
       </c>
       <c r="K16">
-        <v>1.050406286416733</v>
+        <v>1.033304323794165</v>
       </c>
       <c r="L16">
-        <v>1.0464860191414</v>
+        <v>1.021875359104864</v>
       </c>
       <c r="M16">
-        <v>1.057165105096152</v>
+        <v>1.031629547825895</v>
       </c>
       <c r="N16">
-        <v>1.047010245874069</v>
+        <v>1.027402994806908</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039608416841679</v>
+        <v>0.9996859932596702</v>
       </c>
       <c r="D17">
-        <v>1.047313283874171</v>
+        <v>1.02084312171394</v>
       </c>
       <c r="E17">
-        <v>1.04343006009266</v>
+        <v>1.009419884678455</v>
       </c>
       <c r="F17">
-        <v>1.054165504112274</v>
+        <v>1.019434439937593</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041105545287832</v>
+        <v>1.043691857843157</v>
       </c>
       <c r="J17">
-        <v>1.045765882987739</v>
+        <v>1.027156243633792</v>
       </c>
       <c r="K17">
-        <v>1.050640165560218</v>
+        <v>1.034495305469814</v>
       </c>
       <c r="L17">
-        <v>1.046770209375996</v>
+        <v>1.023264740779007</v>
       </c>
       <c r="M17">
-        <v>1.057469236094537</v>
+        <v>1.033110082798644</v>
       </c>
       <c r="N17">
-        <v>1.047250990492604</v>
+        <v>1.028614923316219</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039828634292201</v>
+        <v>1.000824503657477</v>
       </c>
       <c r="D18">
-        <v>1.047491663054766</v>
+        <v>1.021730400975699</v>
       </c>
       <c r="E18">
-        <v>1.043638115127814</v>
+        <v>1.010427750989029</v>
       </c>
       <c r="F18">
-        <v>1.054384739134333</v>
+        <v>1.020492929750801</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041164351565492</v>
+        <v>1.044059704181491</v>
       </c>
       <c r="J18">
-        <v>1.04590608870893</v>
+        <v>1.027856398384022</v>
       </c>
       <c r="K18">
-        <v>1.050776554535578</v>
+        <v>1.035184293129875</v>
       </c>
       <c r="L18">
-        <v>1.04693599372648</v>
+        <v>1.024068883153417</v>
       </c>
       <c r="M18">
-        <v>1.057646659602914</v>
+        <v>1.033967061935504</v>
       </c>
       <c r="N18">
-        <v>1.047391395322002</v>
+        <v>1.029316072366504</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039903732139458</v>
+        <v>1.001211205459439</v>
       </c>
       <c r="D19">
-        <v>1.047552494155717</v>
+        <v>1.022031860898291</v>
       </c>
       <c r="E19">
-        <v>1.043709072746063</v>
+        <v>1.010770208780995</v>
       </c>
       <c r="F19">
-        <v>1.054459510025469</v>
+        <v>1.020852591433093</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041184383952594</v>
+        <v>1.044184490123239</v>
       </c>
       <c r="J19">
-        <v>1.045953892260727</v>
+        <v>1.028094172739782</v>
       </c>
       <c r="K19">
-        <v>1.050823054746419</v>
+        <v>1.035418267552234</v>
       </c>
       <c r="L19">
-        <v>1.046992525439851</v>
+        <v>1.02434202798564</v>
       </c>
       <c r="M19">
-        <v>1.057707161331118</v>
+        <v>1.034258167295839</v>
       </c>
       <c r="N19">
-        <v>1.047439266760325</v>
+        <v>1.029554184389122</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039567913958452</v>
+        <v>0.9994758549719504</v>
       </c>
       <c r="D20">
-        <v>1.047280476365481</v>
+        <v>1.020679397419732</v>
       </c>
       <c r="E20">
-        <v>1.043391797643948</v>
+        <v>1.009233922099021</v>
       </c>
       <c r="F20">
-        <v>1.05412518575234</v>
+        <v>1.019239138088339</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04109471928406</v>
+        <v>1.043623889692857</v>
       </c>
       <c r="J20">
-        <v>1.045740091792724</v>
+        <v>1.027026996493565</v>
       </c>
       <c r="K20">
-        <v>1.050615075511624</v>
+        <v>1.034368116219292</v>
       </c>
       <c r="L20">
-        <v>1.046739716275348</v>
+        <v>1.023116324402725</v>
       </c>
       <c r="M20">
-        <v>1.057436602705698</v>
+        <v>1.032951921000484</v>
       </c>
       <c r="N20">
-        <v>1.047225162671135</v>
+        <v>1.028485492630229</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038476790051738</v>
+        <v>0.9937266499280548</v>
       </c>
       <c r="D21">
-        <v>1.046396707982209</v>
+        <v>1.016205366042291</v>
       </c>
       <c r="E21">
-        <v>1.042361434833271</v>
+        <v>1.00415361452051</v>
       </c>
       <c r="F21">
-        <v>1.053039476780996</v>
+        <v>1.013903848727099</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040801893725574</v>
+        <v>1.041755887537245</v>
       </c>
       <c r="J21">
-        <v>1.045044802899824</v>
+        <v>1.023489019211797</v>
       </c>
       <c r="K21">
-        <v>1.049938578591199</v>
+        <v>1.030886092113841</v>
       </c>
       <c r="L21">
-        <v>1.045918057994917</v>
+        <v>1.019056720383282</v>
       </c>
       <c r="M21">
-        <v>1.056557333966679</v>
+        <v>1.028626510891072</v>
       </c>
       <c r="N21">
-        <v>1.046528886388256</v>
+        <v>1.024942491014909</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037791261573243</v>
+        <v>0.9900253433202924</v>
       </c>
       <c r="D22">
-        <v>1.045841504149601</v>
+        <v>1.013330539273588</v>
       </c>
       <c r="E22">
-        <v>1.041714476018978</v>
+        <v>1.000890486590089</v>
       </c>
       <c r="F22">
-        <v>1.052357782925859</v>
+        <v>1.0104771005837</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040616775348902</v>
+        <v>1.040545243369357</v>
       </c>
       <c r="J22">
-        <v>1.044607495570707</v>
+        <v>1.021209663981711</v>
       </c>
       <c r="K22">
-        <v>1.049512984565702</v>
+        <v>1.028642461735336</v>
       </c>
       <c r="L22">
-        <v>1.045401644078075</v>
+        <v>1.016444323383807</v>
       </c>
       <c r="M22">
-        <v>1.056004771083138</v>
+        <v>1.025843822641517</v>
       </c>
       <c r="N22">
-        <v>1.046090958032572</v>
+        <v>1.02265989883895</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038154625146166</v>
+        <v>0.9919959633191334</v>
       </c>
       <c r="D23">
-        <v>1.046135784559336</v>
+        <v>1.014860585357251</v>
       </c>
       <c r="E23">
-        <v>1.042057358185147</v>
+        <v>1.00262708485192</v>
       </c>
       <c r="F23">
-        <v>1.052719072784366</v>
+        <v>1.012300760539795</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040715005442472</v>
+        <v>1.04119054514781</v>
       </c>
       <c r="J23">
-        <v>1.044839334576365</v>
+        <v>1.022423356601433</v>
       </c>
       <c r="K23">
-        <v>1.049738623771523</v>
+        <v>1.029837158737373</v>
       </c>
       <c r="L23">
-        <v>1.045675386061198</v>
+        <v>1.017835068276463</v>
       </c>
       <c r="M23">
-        <v>1.056297669371526</v>
+        <v>1.027325151661691</v>
       </c>
       <c r="N23">
-        <v>1.04632312627621</v>
+        <v>1.023875315041405</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.039586215296582</v>
+        <v>0.9995708351310871</v>
       </c>
       <c r="D24">
-        <v>1.047295300512744</v>
+        <v>1.020753397289282</v>
       </c>
       <c r="E24">
-        <v>1.043409086501404</v>
+        <v>1.009317972706109</v>
       </c>
       <c r="F24">
-        <v>1.054143403565955</v>
+        <v>1.019327409769269</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041099611435687</v>
+        <v>1.043654613353709</v>
       </c>
       <c r="J24">
-        <v>1.045751745777423</v>
+        <v>1.02708541541864</v>
       </c>
       <c r="K24">
-        <v>1.050626412713557</v>
+        <v>1.034425605124204</v>
       </c>
       <c r="L24">
-        <v>1.046753494730165</v>
+        <v>1.023183406684194</v>
       </c>
       <c r="M24">
-        <v>1.057451348239763</v>
+        <v>1.033023407840901</v>
       </c>
       <c r="N24">
-        <v>1.047236833205829</v>
+        <v>1.028543994516878</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.041249669374877</v>
+        <v>1.008010921146712</v>
       </c>
       <c r="D25">
-        <v>1.048642803155721</v>
+        <v>1.027340060827253</v>
       </c>
       <c r="E25">
-        <v>1.044981448746088</v>
+        <v>1.016802845571293</v>
       </c>
       <c r="F25">
-        <v>1.055800291395286</v>
+        <v>1.027188524873238</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041541524691024</v>
+        <v>1.046365022809695</v>
       </c>
       <c r="J25">
-        <v>1.046809862511313</v>
+        <v>1.032271661104454</v>
       </c>
       <c r="K25">
-        <v>1.051655510707519</v>
+        <v>1.039528281016543</v>
       </c>
       <c r="L25">
-        <v>1.048005400181039</v>
+        <v>1.029145800862801</v>
       </c>
       <c r="M25">
-        <v>1.058791264128797</v>
+        <v>1.03937894178701</v>
       </c>
       <c r="N25">
-        <v>1.048296452586849</v>
+        <v>1.033737605266437</v>
       </c>
     </row>
   </sheetData>
